--- a/amelioration-mapping/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -553,7 +553,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
-    <t>regionSource : JDV-J237-RegionOM-ROR</t>
+    <t>regionSource</t>
   </si>
   <si>
     <t>PractitionerRole.implicitRules</t>
@@ -679,7 +679,7 @@
     <t>Extension créée dans le cadre du ROR qui correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
   </si>
   <si>
-    <t>modeExerciceOffre : JDV-J217-ModeExercice-ROR</t>
+    <t>modeExerciceOffre</t>
   </si>
   <si>
     <t>PractitionerRole.extension:ror-practitionerrole-name</t>
@@ -698,43 +698,38 @@
     <t>Extension créée dans le cadre du ROR pour définir l'identité d’exercice d’un professionnel</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.id</t>
+    <t>PractitionerRole.extension:contracted</t>
+  </si>
+  <si>
+    <t>contracted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted}
+</t>
+  </si>
+  <si>
+    <t>secteurConventionnement (SituationOperationnelle) : Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:contracted.id</t>
   </si>
   <si>
     <t>PractitionerRole.extension.id</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension</t>
+    <t>PractitionerRole.extension:contracted.extension</t>
   </si>
   <si>
     <t>PractitionerRole.extension.extension</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseTitle</t>
-  </si>
-  <si>
-    <t>exerciseTitle</t>
-  </si>
-  <si>
-    <t>civiliteExercice : JDV-J208-CiviliteExercice-ROR</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseTitle.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseTitle.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseTitle.url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension.url</t>
+    <t>PractitionerRole.extension:contracted.url</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.url</t>
   </si>
   <si>
     <t>identifies the meaning of the extension</t>
@@ -746,13 +741,16 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseTitle.value[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension.value[x]</t>
+    <t>PractitionerRole.extension:contracted.value[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -765,124 +763,16 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>JDV_J218-CNAMAmeliSecteurConventionnement-RASS dérivé de la TRE_ R282-CNAMAmeliSecteurConventionnement</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseTitle.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J208-CiviliteExercice-ROR/FHIR/JDV-J208-CiviliteExercice-ROR</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseLastName</t>
-  </si>
-  <si>
-    <t>exerciseLastName</t>
-  </si>
-  <si>
-    <t>nomExercice</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseLastName.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseLastName.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseLastName.url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseLastName.value[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseFirstName</t>
-  </si>
-  <si>
-    <t>exerciseFirstName</t>
-  </si>
-  <si>
-    <t>prenomExercice</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseFirstName.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseFirstName.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseFirstName.url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseFirstName.value[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.url</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/RORPractitionerRoleName</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-name.value[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted</t>
-  </si>
-  <si>
-    <t>contracted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted}
-</t>
-  </si>
-  <si>
-    <t>secteurConventionnement (SituationOperationnelle) : Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>secteurConventionnement : JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.url</t>
-  </si>
-  <si>
-    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x]</t>
-  </si>
-  <si>
-    <t>JDV_J218-CNAMAmeliSecteurConventionnement-RASS dérivé de la TRE_ R282-CNAMAmeliSecteurConventionnement</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
+    <t>secteurConventionnement</t>
   </si>
   <si>
     <t>PractitionerRole.extension:optionCAS</t>
@@ -898,6 +788,25 @@
     <t>optionContratAccèsAuxSoins (SituationOperationnelle) : L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:optionCAS.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:optionCAS.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:optionCAS.url</t>
+  </si>
+  <si>
+    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:optionCAS.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>optionContratAccèsAuxSoins</t>
   </si>
   <si>
@@ -914,6 +823,21 @@
     <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:vitalAccepted.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:vitalAccepted.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:vitalAccepted.url</t>
+  </si>
+  <si>
+    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:vitalAccepted.value[x]</t>
+  </si>
+  <si>
     <t>carteVitaleAcceptee</t>
   </si>
   <si>
@@ -933,9 +857,6 @@
     <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
   </si>
   <si>
-    <t>metadonnee.dateCreation</t>
-  </si>
-  <si>
     <t>PractitionerRole.extension:ror-meta-comment</t>
   </si>
   <si>
@@ -952,9 +873,6 @@
     <t>Extension créée dans le cadre du ROR qui correspond au commentaire présent dans les métadonnées.</t>
   </si>
   <si>
-    <t>metadonnee.commentaire</t>
-  </si>
-  <si>
     <t>PractitionerRole.modifierExtension</t>
   </si>
   <si>
@@ -1005,10 +923,6 @@
     <t>PractitionerRole.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>Whether this practitioner role record is in active use</t>
   </si>
   <si>
@@ -1092,6 +1006,9 @@
     <t>.player</t>
   </si>
   <si>
+    <t>Professionnel</t>
+  </si>
+  <si>
     <t>PractitionerRole.organization</t>
   </si>
   <si>
@@ -1174,7 +1091,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.typeSavoirFaire : JDV-J209-TypeSavoirFaire-ROR</t>
+    <t>SavoirFaire.typeSavoirFaire</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:specialty</t>
@@ -1189,7 +1106,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.specialite : JDV-J210-SpecialiteOrdinale-ROR</t>
+    <t>SavoirFaire.specialite</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:competence</t>
@@ -1204,7 +1121,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV-J232-Competence-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.competence : JDV-J232-Competence-ROR</t>
+    <t>SavoirFaire.competence</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:exclusiveCompetence</t>
@@ -1219,7 +1136,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J211-CompetenceExclusive-ROR/FHIR/JDV-J211-CompetenceExclusive-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.competenceExclusive : JDV-J211-CompetenceExclusive-ROR</t>
+    <t>SavoirFaire.competenceExclusive</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:specificOrientation</t>
@@ -1234,7 +1151,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J212-OrientationParticuliere-ROR/FHIR/JDV-J212-OrientationParticuliere-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.orientationParticuliere : JDV-J212-OrientationParticuliere-ROR</t>
+    <t>SavoirFaire.orientationParticuliere</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:expertiseCapacity</t>
@@ -1249,7 +1166,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J213-CapaciteSavoirFaire-ROR/FHIR/JDV-J213-CapaciteSavoirFaire-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.capacite : JDV-J213-CapaciteSavoirFaire-ROR</t>
+    <t>SavoirFaire.capacite</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:qualificationPAC</t>
@@ -1264,7 +1181,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J214-QualificationPAC-ROR/FHIR/JDV-J214-QualificationPAC-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.qualificationPAC : JDV-J214-QualificationPAC-ROR</t>
+    <t>SavoirFaire.qualificationPAC</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:nonQualifyingDESC</t>
@@ -1279,7 +1196,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J215-DESCnonQualifiant-ROR/FHIR/JDV-J215-DESCnonQualifiant-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.DESCNonQualifiant : JDV-J215-DESCnonQualifiant-ROR</t>
+    <t>SavoirFaire.DESCNonQualifiant</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:supplementaryExerciseRight</t>
@@ -1294,7 +1211,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J216-DroitExerciceCompl-ROR/FHIR/JDV-J216-DroitExerciceCompl-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.droitExerciceComplémentaire : JDV-J216-DroitExerciceCompl-ROR</t>
+    <t>SavoirFaire.droitExerciceComplémentaire</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:specificCompetence</t>
@@ -1309,7 +1226,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J33-CompetenceSpecifique-ROR/FHIR/JDV-J33-CompetenceSpecifique-ROR</t>
   </si>
   <si>
-    <t>competenceSpecifique : JDV-J33-CompetenceSpecifique-ROR</t>
+    <t>competenceSpecifique</t>
   </si>
   <si>
     <t>PractitionerRole.location</t>
@@ -1353,6 +1270,9 @@
     <t>.player.QualifiedEntity[@classCode = 'QUAL'].code</t>
   </si>
   <si>
+    <t>OffreOperationnelle</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
@@ -1407,9 +1327,6 @@
     <t>Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
-    <t>canal : JDV-J225-CanalCommunication-ROR</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.extension:ror-telecom-usage</t>
   </si>
   <si>
@@ -1426,9 +1343,6 @@
     <t>Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication</t>
   </si>
   <si>
-    <t>utilisation</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.extension:ror-telecom-confidentiality-level</t>
   </si>
   <si>
@@ -1445,9 +1359,6 @@
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
   </si>
   <si>
-    <t>niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.system</t>
   </si>
   <si>
@@ -1626,9 +1537,6 @@
     <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
-    <t>typePlageHoraire : JDV-J41-TypeHoraire-ROR</t>
-  </si>
-  <si>
     <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
@@ -1645,110 +1553,6 @@
     <t>Extension créée dans le cadre du ROR pour décrire le planning d'activité d'un professionnel ou d'une offre.</t>
   </si>
   <si>
-    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date.url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension.url</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-effective-opening-closing-date</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date.value[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension.value[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date.value[x].id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date.value[x].extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date.value[x].start</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension.value[x].start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Starting time with inclusive boundary</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t>ele-1
-per-1</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>debutDateEffective</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date.value[x].end</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension.value[x].end</t>
-  </si>
-  <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>finDateEffective</t>
-  </si>
-  <si>
     <t>PractitionerRole.availableTime.extension:ror-available-time-number-days-of-week</t>
   </si>
   <si>
@@ -1763,9 +1567,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour indiquer le numéro du jour dans la semaine.</t>
-  </si>
-  <si>
-    <t>jourSemaine</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.modifierExtension</t>
@@ -2224,7 +2025,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP107"/>
+  <dimension ref="A1:AP87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2233,8 +2034,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="101.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="84.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="46.02734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -2243,7 +2044,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2272,8 +2073,8 @@
     <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="72.45703125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="75.70703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="65.40234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="67.484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4669,9 +4470,7 @@
       <c r="AN20" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AO20" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4681,9 +4480,11 @@
         <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4695,7 +4496,7 @@
         <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
@@ -4704,13 +4505,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4761,25 +4562,25 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4796,10 +4597,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4807,11 +4608,11 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4822,13 +4623,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4867,37 +4668,37 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4914,14 +4715,12 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4930,7 +4729,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4987,16 +4786,16 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>123</v>
@@ -5026,7 +4825,7 @@
         <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>78</v>
@@ -5034,10 +4833,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5045,7 +4844,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
@@ -5060,22 +4859,24 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>78</v>
@@ -5117,10 +4918,10 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>91</v>
@@ -5135,7 +4936,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -5152,10 +4953,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5166,7 +4967,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -5178,13 +4979,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5211,49 +5012,49 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -5265,29 +5066,31 @@
         <v>78</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
@@ -5296,24 +5099,22 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>78</v>
@@ -5355,19 +5156,19 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -5390,10 +5191,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5416,13 +5217,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5461,17 +5262,19 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5480,16 +5283,16 @@
         <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5506,23 +5309,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5534,15 +5335,17 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5567,41 +5370,43 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5624,14 +5429,12 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5652,22 +5455,24 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>78</v>
@@ -5709,25 +5514,25 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5736,7 +5541,7 @@
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>78</v>
@@ -5744,10 +5549,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5770,13 +5575,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5827,7 +5632,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5836,16 +5641,16 @@
         <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5857,17 +5662,19 @@
         <v>78</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5876,10 +5683,10 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>78</v>
@@ -5888,13 +5695,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5933,19 +5740,19 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5963,7 +5770,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5980,10 +5787,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5991,7 +5798,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>91</v>
@@ -6006,24 +5813,22 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>78</v>
@@ -6065,10 +5870,10 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>91</v>
@@ -6083,7 +5888,7 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -6100,21 +5905,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -6126,15 +5931,17 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -6171,31 +5978,31 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6218,20 +6025,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>91</v>
@@ -6246,22 +6051,24 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -6303,25 +6110,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -6330,7 +6137,7 @@
         <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>78</v>
@@ -6338,10 +6145,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6364,13 +6171,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6421,7 +6228,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6430,16 +6237,16 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -6451,29 +6258,31 @@
         <v>78</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
@@ -6482,13 +6291,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6527,19 +6336,19 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6574,24 +6383,26 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
@@ -6600,24 +6411,22 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
@@ -6659,25 +6468,25 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6694,42 +6503,46 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6765,31 +6578,31 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -6812,10 +6625,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6823,39 +6636,39 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>78</v>
@@ -6897,45 +6710,45 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6946,7 +6759,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6955,23 +6768,29 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="R40" t="s" s="2">
         <v>78</v>
       </c>
@@ -7015,7 +6834,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7030,16 +6849,16 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -7050,14 +6869,12 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>78</v>
       </c>
@@ -7069,25 +6886,29 @@
         <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -7135,45 +6956,45 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7181,30 +7002,32 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7253,7 +7076,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7262,16 +7085,16 @@
         <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -7280,7 +7103,7 @@
         <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>78</v>
@@ -7288,10 +7111,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7302,7 +7125,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7311,18 +7134,20 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7359,37 +7184,37 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -7406,10 +7231,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7423,33 +7248,35 @@
         <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>78</v>
@@ -7467,13 +7294,11 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7491,34 +7316,34 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>78</v>
@@ -7526,10 +7351,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7537,30 +7362,32 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7585,37 +7412,35 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>104</v>
@@ -7624,13 +7449,13 @@
         <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7644,20 +7469,20 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7669,18 +7494,20 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7705,13 +7532,11 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7729,7 +7554,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7741,36 +7566,36 @@
         <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
@@ -7789,18 +7614,20 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7825,13 +7652,11 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7849,7 +7674,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7861,43 +7686,43 @@
         <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>91</v>
@@ -7909,18 +7734,20 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7945,13 +7772,11 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7969,7 +7794,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7981,36 +7806,36 @@
         <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>78</v>
@@ -8029,18 +7854,20 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>299</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -8065,13 +7892,11 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -8089,7 +7914,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8101,69 +7926,69 @@
         <v>104</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="D50" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J50" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -8187,31 +8012,29 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8223,22 +8046,22 @@
         <v>104</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>78</v>
@@ -8246,12 +8069,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8272,18 +8097,18 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8307,13 +8132,11 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8331,7 +8154,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8346,32 +8169,34 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8383,7 +8208,7 @@
         <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>78</v>
@@ -8392,26 +8217,22 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q52" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8431,13 +8252,11 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -8455,13 +8274,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>104</v>
@@ -8470,19 +8289,19 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>78</v>
@@ -8490,12 +8309,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8507,7 +8328,7 @@
         <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>78</v>
@@ -8516,20 +8337,18 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8553,13 +8372,11 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8577,34 +8394,34 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>78</v>
@@ -8612,18 +8429,20 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>91</v>
@@ -8638,16 +8457,16 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8673,13 +8492,11 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8697,34 +8514,34 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>343</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -8732,12 +8549,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8746,10 +8565,10 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>78</v>
@@ -8758,16 +8577,16 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8793,13 +8612,11 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8817,34 +8634,34 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>343</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -8852,10 +8669,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8863,13 +8680,13 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>78</v>
@@ -8878,20 +8695,18 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>238</v>
+        <v>392</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8915,11 +8730,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8937,7 +8754,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8949,22 +8766,22 @@
         <v>104</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>336</v>
+        <v>396</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>78</v>
@@ -8972,10 +8789,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8986,7 +8803,7 @@
         <v>91</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>92</v>
@@ -8995,19 +8812,19 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>238</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9033,29 +8850,31 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9067,16 +8886,16 @@
         <v>104</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -9085,25 +8904,23 @@
         <v>78</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
@@ -9118,18 +8935,18 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -9153,11 +8970,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -9175,7 +8994,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9187,37 +9006,35 @@
         <v>104</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>410</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9229,26 +9046,24 @@
         <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>375</v>
+        <v>110</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9273,11 +9088,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9295,34 +9112,34 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>359</v>
+        <v>112</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>78</v>
@@ -9330,45 +9147,41 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9393,29 +9206,31 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9427,22 +9242,22 @@
         <v>104</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>78</v>
@@ -9450,20 +9265,20 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>91</v>
@@ -9475,20 +9290,18 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>238</v>
+        <v>419</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9513,11 +9326,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9535,7 +9350,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9547,22 +9362,22 @@
         <v>104</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>78</v>
@@ -9570,13 +9385,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>78</v>
@@ -9595,20 +9410,18 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>238</v>
+        <v>424</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9633,11 +9446,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y62" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z62" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9655,7 +9470,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9667,22 +9482,22 @@
         <v>104</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>78</v>
@@ -9690,20 +9505,20 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>91</v>
@@ -9715,20 +9530,18 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>238</v>
+        <v>429</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9753,11 +9566,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9775,7 +9590,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9787,22 +9602,22 @@
         <v>104</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>78</v>
@@ -9810,14 +9625,12 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9829,7 +9642,7 @@
         <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>78</v>
@@ -9838,16 +9651,16 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9875,9 +9688,11 @@
       <c r="X64" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y64" s="2"/>
+      <c r="Y64" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9895,34 +9710,34 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>365</v>
+        <v>440</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>366</v>
+        <v>441</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>367</v>
+        <v>442</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>78</v>
@@ -9930,20 +9745,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>91</v>
@@ -9958,18 +9771,20 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9993,11 +9808,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -10015,13 +9832,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>104</v>
@@ -10030,34 +9847,32 @@
         <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>365</v>
+        <v>449</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>366</v>
+        <v>450</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>78</v>
       </c>
@@ -10069,27 +9884,29 @@
         <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>361</v>
+        <v>455</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -10115,9 +9932,11 @@
       <c r="X66" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y66" s="2"/>
+      <c r="Y66" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -10135,13 +9954,13 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>359</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>104</v>
@@ -10150,19 +9969,19 @@
         <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>366</v>
+        <v>462</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>78</v>
@@ -10170,14 +9989,12 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>78</v>
       </c>
@@ -10186,10 +10003,10 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>78</v>
@@ -10198,16 +10015,16 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>238</v>
+        <v>465</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>362</v>
+        <v>468</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10233,11 +10050,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -10255,13 +10074,13 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>359</v>
+        <v>469</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>104</v>
@@ -10270,19 +10089,19 @@
         <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>365</v>
+        <v>113</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>78</v>
@@ -10290,10 +10109,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10304,7 +10123,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -10316,16 +10135,16 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>419</v>
+        <v>300</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10375,31 +10194,31 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10410,10 +10229,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10421,7 +10240,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>91</v>
@@ -10436,16 +10255,16 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>342</v>
+        <v>480</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10495,7 +10314,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10507,13 +10326,13 @@
         <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>343</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -10525,15 +10344,15 @@
         <v>78</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10547,27 +10366,25 @@
         <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>432</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>110</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10615,28 +10432,28 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>431</v>
+        <v>112</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>438</v>
+        <v>113</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10645,26 +10462,26 @@
         <v>78</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10676,15 +10493,17 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10721,37 +10540,37 @@
         <v>78</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10768,24 +10587,26 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>78</v>
@@ -10794,13 +10615,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>116</v>
+        <v>487</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>205</v>
+        <v>488</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>206</v>
+        <v>489</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10839,16 +10660,16 @@
         <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>123</v>
@@ -10886,20 +10707,20 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>91</v>
@@ -10914,13 +10735,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11001,18 +10822,18 @@
         <v>78</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>78</v>
@@ -11034,13 +10855,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11121,49 +10942,51 @@
         <v>78</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>501</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I75" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -11211,7 +11034,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>123</v>
+        <v>504</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11229,7 +11052,7 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -11241,15 +11064,15 @@
         <v>78</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11260,7 +11083,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -11269,19 +11092,19 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>180</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11310,10 +11133,10 @@
         <v>171</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -11331,28 +11154,28 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>468</v>
+        <v>104</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11366,10 +11189,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11377,35 +11200,31 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11453,7 +11272,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11468,13 +11287,13 @@
         <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11483,15 +11302,15 @@
         <v>78</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11505,29 +11324,27 @@
         <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>180</v>
+        <v>514</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11551,13 +11368,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -11575,7 +11392,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11590,13 +11407,13 @@
         <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11605,15 +11422,15 @@
         <v>78</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>78</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11627,25 +11444,25 @@
         <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11695,7 +11512,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11710,10 +11527,10 @@
         <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>113</v>
+        <v>481</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11725,15 +11542,15 @@
         <v>78</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>78</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11744,7 +11561,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11753,20 +11570,18 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>328</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11815,28 +11630,28 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>504</v>
+        <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11850,10 +11665,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11867,7 +11682,7 @@
         <v>91</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>78</v>
@@ -11876,17 +11691,15 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>506</v>
+        <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>507</v>
+        <v>110</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11935,25 +11748,25 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>505</v>
+        <v>112</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>510</v>
+        <v>113</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -11965,26 +11778,26 @@
         <v>78</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>511</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11996,15 +11809,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -12041,37 +11856,37 @@
         <v>78</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -12088,14 +11903,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>115</v>
+        <v>501</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12108,24 +11923,26 @@
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>117</v>
+        <v>502</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>118</v>
+        <v>503</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -12161,19 +11978,19 @@
         <v>78</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>123</v>
+        <v>504</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12208,26 +12025,24 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>78</v>
@@ -12236,15 +12051,17 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>516</v>
+        <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -12293,25 +12110,25 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>123</v>
+        <v>529</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
@@ -12323,19 +12140,17 @@
         <v>78</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>519</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>78</v>
       </c>
@@ -12347,7 +12162,7 @@
         <v>91</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>78</v>
@@ -12356,15 +12171,17 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>522</v>
+        <v>300</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -12413,25 +12230,25 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>123</v>
+        <v>532</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>78</v>
+        <v>535</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
@@ -12448,10 +12265,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12477,12 +12294,14 @@
         <v>109</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>110</v>
+        <v>537</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12531,7 +12350,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>112</v>
+        <v>536</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12540,16 +12359,16 @@
         <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>113</v>
+        <v>481</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -12566,10 +12385,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12580,7 +12399,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -12592,16 +12411,20 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>116</v>
+        <v>540</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>205</v>
+        <v>541</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12637,19 +12460,19 @@
         <v>78</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>123</v>
+        <v>539</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12661,13 +12484,13 @@
         <v>104</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -12679,2409 +12502,11 @@
         <v>78</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q93" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="D94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP103" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP107" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP107">
+  <autoFilter ref="A1:AP87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15091,7 +12516,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/amelioration-mapping/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
